--- a/TURN/Tables.xlsx
+++ b/TURN/Tables.xlsx
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>Organism</t>
-  </si>
-  <si>
-    <t>Respiratory Syncytial Virus (RSV)</t>
-  </si>
-  <si>
-    <t>Human Rhinovirus/Enterovirus (HRV/EV)</t>
-  </si>
-  <si>
-    <t>Influenza A (Flu A, all subtypes)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>&lt; 2e-16</t>
   </si>
@@ -45,6 +33,18 @@
   </si>
   <si>
     <t>F-statistic</t>
+  </si>
+  <si>
+    <t>p-value of F-statistic</t>
+  </si>
+  <si>
+    <t>Influenza A (all subtypes)</t>
+  </si>
+  <si>
+    <t>Respiratory Syncytial Virus</t>
+  </si>
+  <si>
+    <t>Human Rhinovirus/Enterovirus</t>
   </si>
   <si>
     <r>
@@ -54,11 +54,10 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(measure of contribution)</t>
     </r>
@@ -71,24 +70,23 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(hypothesis test of t-value)</t>
     </r>
   </si>
   <si>
-    <t>p-value of F-statistic</t>
+    <t>Pathogen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,26 +96,29 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -159,22 +160,123 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -182,113 +284,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -297,46 +293,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,94 +609,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.21875" customWidth="1"/>
     <col min="2" max="2" width="1.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
-    <col min="4" max="5" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:5" ht="7.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12.15</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>4</v>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>12.97</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2.2286029999999999E-28</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10.138</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10.24</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.3255279999999997E-20</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>6.2939999999999996</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1.92E-9</v>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8">
+        <v>6.85</v>
+      </c>
+      <c r="E6" s="6">
+        <v>8.7671799999999998E-11</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="9"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.18959999999999999</v>
-      </c>
-      <c r="E8" s="16"/>
+      <c r="C8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.182</v>
+      </c>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>203.7</v>
-      </c>
-      <c r="E9" s="17"/>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>219.5</v>
+      </c>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="18"/>
+      <c r="C10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
